--- a/medicine/Psychotrope/Harbin_(bière)/Harbin_(bière).xlsx
+++ b/medicine/Psychotrope/Harbin_(bière)/Harbin_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Harbin_(bi%C3%A8re)</t>
+          <t>Harbin_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La bière de marque Harbin (chinois simplifié : 哈尔滨啤酒 ; chinois traditionnel : 哈爾濱啤酒 ; pinyin : Hā'ěrbīn Píjiǔ), est une bière produite en Chine, dans la ville de Harbin. C'est la quatrième marque de bière de Chine[1], après Tsingtao, Yanjing et Snow.
+La bière de marque Harbin (chinois simplifié : 哈尔滨啤酒 ; chinois traditionnel : 哈爾濱啤酒 ; pinyin : Hā'ěrbīn Píjiǔ), est une bière produite en Chine, dans la ville de Harbin. C'est la quatrième marque de bière de Chine, après Tsingtao, Yanjing et Snow.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Harbin_(bi%C3%A8re)</t>
+          <t>Harbin_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1898 commence le projet Trans-Mandchourie, qui consiste en la construction d'une ligne de chemin de fer à travers ce qu'on appelle à cette date la Mandchourie. Un ressortissant russe nommé Ulubulevskij fonde alors une brasserie pour fournir les Russes travaillant sur ce chantier. La brasserie Ulubulevskij est inaugurée en 1900 dans la ville de Harbin au nord de la Chine, ce qui fait d'elle la plus ancienne brasserie de Chine. En 1908, il renomme la brasserie Gulunia. En 1932, la brasserie passe sous le contrôle conjoint de ressortissants chinois et tchèques et s'appelle simplement "Harbin Brasserie".
 De 1946 à 1950, lorsque la Russie envahit la Mandchourie, la société est contrôlée par des ressortissants soviétiques. La brasserie prend alors le nom "Quilin Stock Company Limited". À la libération lorsque Staline restitue les avoirs chinois, le gouvernement chinois nationalise l'entreprise qui reprend son nom "Harbin Brasserie" et la gère comme une entreprise d'État.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Harbin_(bi%C3%A8re)</t>
+          <t>Harbin_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'image de la plus célèbre bière chinoise, la Tsingtao, la Harbin est fabriquée à base de levure allemande, à double fermentation.
 bière blonde
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Harbin_(bi%C3%A8re)</t>
+          <t>Harbin_(bière)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Évènement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brasserie Harbin est sponsor du Festival de sculptures sur glace et de neige de Harbin.</t>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Harbin_(bi%C3%A8re)</t>
+          <t>Harbin_(bière)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,10 +630,12 @@
           <t>Site externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Michael Jackson's Beer Hunter
-↑ [1].
+↑ .
 (en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Harbin Brewery » (voir la liste des auteurs).
  Portail de la bière   Portail des entreprises   Portail de la Chine                   </t>
         </is>
